--- a/Contact.xlsx
+++ b/Contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducanh/Desktop/KLTN-Software-Manage-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8737C0-1DE6-1B48-BA18-4BB4DBF29E0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B2410-BA38-AE49-BF7E-3DD9F8F06A98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>CONTACT LIST</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>badboy2k@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy </t>
+  </si>
+  <si>
+    <t>Nguyen Thi</t>
+  </si>
+  <si>
+    <t>lucy69@gmail.com</t>
+  </si>
+  <si>
+    <t>0134523643</t>
+  </si>
+  <si>
+    <t>123 Block A</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Fetch</t>
   </si>
 </sst>
 </file>
@@ -228,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +260,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -620,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,6 +935,38 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>88321</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -921,6 +979,7 @@
     <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{DB42D003-ED9D-6343-81CE-F4E53B044CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Contact.xlsx
+++ b/Contact.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducanh/Desktop/KLTN-Software-Manage-System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B2410-BA38-AE49-BF7E-3DD9F8F06A98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892327F4-FCA1-9148-B62B-13D3027B99CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>CONTACT LIST</t>
   </si>
@@ -177,9 +178,6 @@
     <t>badboy2k@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucy </t>
-  </si>
-  <si>
     <t>Nguyen Thi</t>
   </si>
   <si>
@@ -199,6 +197,114 @@
   </si>
   <si>
     <t>Fetch</t>
+  </si>
+  <si>
+    <t>Weit</t>
+  </si>
+  <si>
+    <t>Dreey</t>
+  </si>
+  <si>
+    <t>alo44@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 XXX Street </t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Fetch 2</t>
+  </si>
+  <si>
+    <t>Bee</t>
+  </si>
+  <si>
+    <t>Bumble</t>
+  </si>
+  <si>
+    <t>bee@gmail.com</t>
+  </si>
+  <si>
+    <t>FGG Steet 2</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Primass 2</t>
+  </si>
+  <si>
+    <t>Mih</t>
+  </si>
+  <si>
+    <t>Dang Van</t>
+  </si>
+  <si>
+    <t>minhkute@gmail.com</t>
+  </si>
+  <si>
+    <t>F33 Street 44</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>Veu</t>
+  </si>
+  <si>
+    <t>Waar</t>
+  </si>
+  <si>
+    <t>warr@gmail.com</t>
+  </si>
+  <si>
+    <t>AD BLOCK</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Wwnono</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>BAMA</t>
+  </si>
+  <si>
+    <t>bama@gmail.com</t>
+  </si>
+  <si>
+    <t>BLOCK 55</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>BOBO</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -254,14 +360,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -646,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -666,18 +772,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -718,10 +824,10 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -750,10 +856,10 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
@@ -782,10 +888,10 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -814,10 +920,10 @@
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
@@ -846,10 +952,10 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
@@ -878,10 +984,10 @@
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E8" t="s">
@@ -910,10 +1016,10 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E9" t="s">
@@ -937,34 +1043,194 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
       </c>
       <c r="I10">
         <v>88321</v>
       </c>
       <c r="J10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>334312333</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>22233</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>445324345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12">
+        <v>34211</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>324987098</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>33453</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>345346333</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>33473</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>334678542</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>33345</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -980,6 +1246,11 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{DB42D003-ED9D-6343-81CE-F4E53B044CF6}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{A78CFF17-E2B4-AF44-8104-6676FF52ED36}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{C937FA74-45CE-7A4F-9CC1-2EAA2BE0C0DE}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{E559E92E-9420-6045-8CF2-25A3F9D88409}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{80D0433C-6E0B-E947-83B3-8B04E1A01498}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{978DCE87-076C-AC40-8CBA-E51210B0F51D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
